--- a/tests/data/filled_templates/geologie_template_full.xlsx
+++ b/tests/data/filled_templates/geologie_template_full.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ArneDegrave\PycharmProjects\xls2xml\tests\data\filled_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62D218D-8D36-46CE-854C-5930A438C42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEECB365-5C96-41DC-841F-1AA076CD03F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codelijsten" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20519" uniqueCount="5025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20523" uniqueCount="5025">
   <si>
     <t>identificatie</t>
   </si>
@@ -16562,8 +16562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:HD951"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2:AJ2"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI3:AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -70683,18 +70683,80 @@
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="HC2:HD2"/>
+    <mergeCell ref="GW1:HD1"/>
+    <mergeCell ref="GM2:GN2"/>
+    <mergeCell ref="GO2:GP2"/>
+    <mergeCell ref="GQ2:GR2"/>
+    <mergeCell ref="GS2:GT2"/>
+    <mergeCell ref="GU2:GV2"/>
+    <mergeCell ref="FO1:GV1"/>
+    <mergeCell ref="GW2:GX2"/>
+    <mergeCell ref="GY2:GZ2"/>
+    <mergeCell ref="HA2:HB2"/>
+    <mergeCell ref="FU2:FV2"/>
+    <mergeCell ref="FW2:FX2"/>
+    <mergeCell ref="FY2:FZ2"/>
+    <mergeCell ref="GA2:GB2"/>
+    <mergeCell ref="GC2:GD2"/>
+    <mergeCell ref="GE2:GF2"/>
+    <mergeCell ref="GG2:GH2"/>
+    <mergeCell ref="GI2:GJ2"/>
+    <mergeCell ref="GK2:GL2"/>
+    <mergeCell ref="FE2:FF2"/>
+    <mergeCell ref="FG2:FH2"/>
+    <mergeCell ref="FI2:FJ2"/>
+    <mergeCell ref="FK2:FL2"/>
+    <mergeCell ref="FM2:FN2"/>
+    <mergeCell ref="BE1:FN1"/>
+    <mergeCell ref="FO2:FP2"/>
+    <mergeCell ref="FQ2:FR2"/>
+    <mergeCell ref="FS2:FT2"/>
+    <mergeCell ref="EM2:EN2"/>
+    <mergeCell ref="EO2:EP2"/>
+    <mergeCell ref="EQ2:ER2"/>
+    <mergeCell ref="ES2:ET2"/>
+    <mergeCell ref="EU2:EV2"/>
+    <mergeCell ref="EW2:EX2"/>
+    <mergeCell ref="EY2:EZ2"/>
+    <mergeCell ref="FA2:FB2"/>
+    <mergeCell ref="FC2:FD2"/>
+    <mergeCell ref="DU2:DV2"/>
+    <mergeCell ref="DW2:DX2"/>
+    <mergeCell ref="DY2:DZ2"/>
+    <mergeCell ref="EA2:EB2"/>
+    <mergeCell ref="EC2:ED2"/>
+    <mergeCell ref="EE2:EF2"/>
+    <mergeCell ref="EG2:EH2"/>
+    <mergeCell ref="EI2:EJ2"/>
+    <mergeCell ref="EK2:EL2"/>
+    <mergeCell ref="DC2:DD2"/>
+    <mergeCell ref="DE2:DF2"/>
+    <mergeCell ref="DG2:DH2"/>
+    <mergeCell ref="DI2:DJ2"/>
+    <mergeCell ref="DK2:DL2"/>
+    <mergeCell ref="DM2:DN2"/>
+    <mergeCell ref="DO2:DP2"/>
+    <mergeCell ref="DQ2:DR2"/>
+    <mergeCell ref="DS2:DT2"/>
+    <mergeCell ref="CK2:CL2"/>
+    <mergeCell ref="CM2:CN2"/>
+    <mergeCell ref="CO2:CP2"/>
+    <mergeCell ref="CQ2:CR2"/>
+    <mergeCell ref="CS2:CT2"/>
+    <mergeCell ref="CU2:CV2"/>
+    <mergeCell ref="CW2:CX2"/>
+    <mergeCell ref="CY2:CZ2"/>
+    <mergeCell ref="DA2:DB2"/>
+    <mergeCell ref="BS2:BT2"/>
+    <mergeCell ref="BU2:BV2"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="BY2:BZ2"/>
+    <mergeCell ref="CA2:CB2"/>
+    <mergeCell ref="CC2:CD2"/>
+    <mergeCell ref="CE2:CF2"/>
+    <mergeCell ref="CG2:CH2"/>
+    <mergeCell ref="CI2:CJ2"/>
     <mergeCell ref="BC2:BD2"/>
     <mergeCell ref="A1:BD1"/>
     <mergeCell ref="BE2:BF2"/>
@@ -70719,80 +70781,18 @@
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="BS2:BT2"/>
-    <mergeCell ref="BU2:BV2"/>
-    <mergeCell ref="BW2:BX2"/>
-    <mergeCell ref="BY2:BZ2"/>
-    <mergeCell ref="CA2:CB2"/>
-    <mergeCell ref="CC2:CD2"/>
-    <mergeCell ref="CE2:CF2"/>
-    <mergeCell ref="CG2:CH2"/>
-    <mergeCell ref="CI2:CJ2"/>
-    <mergeCell ref="CK2:CL2"/>
-    <mergeCell ref="CM2:CN2"/>
-    <mergeCell ref="CO2:CP2"/>
-    <mergeCell ref="CQ2:CR2"/>
-    <mergeCell ref="CS2:CT2"/>
-    <mergeCell ref="CU2:CV2"/>
-    <mergeCell ref="CW2:CX2"/>
-    <mergeCell ref="CY2:CZ2"/>
-    <mergeCell ref="DA2:DB2"/>
-    <mergeCell ref="EG2:EH2"/>
-    <mergeCell ref="EI2:EJ2"/>
-    <mergeCell ref="EK2:EL2"/>
-    <mergeCell ref="DC2:DD2"/>
-    <mergeCell ref="DE2:DF2"/>
-    <mergeCell ref="DG2:DH2"/>
-    <mergeCell ref="DI2:DJ2"/>
-    <mergeCell ref="DK2:DL2"/>
-    <mergeCell ref="DM2:DN2"/>
-    <mergeCell ref="DO2:DP2"/>
-    <mergeCell ref="DQ2:DR2"/>
-    <mergeCell ref="DS2:DT2"/>
-    <mergeCell ref="FE2:FF2"/>
-    <mergeCell ref="FG2:FH2"/>
-    <mergeCell ref="FI2:FJ2"/>
-    <mergeCell ref="FK2:FL2"/>
-    <mergeCell ref="FM2:FN2"/>
-    <mergeCell ref="BE1:FN1"/>
-    <mergeCell ref="FO2:FP2"/>
-    <mergeCell ref="FQ2:FR2"/>
-    <mergeCell ref="FS2:FT2"/>
-    <mergeCell ref="EM2:EN2"/>
-    <mergeCell ref="EO2:EP2"/>
-    <mergeCell ref="EQ2:ER2"/>
-    <mergeCell ref="ES2:ET2"/>
-    <mergeCell ref="EU2:EV2"/>
-    <mergeCell ref="EW2:EX2"/>
-    <mergeCell ref="EY2:EZ2"/>
-    <mergeCell ref="FA2:FB2"/>
-    <mergeCell ref="FC2:FD2"/>
-    <mergeCell ref="DU2:DV2"/>
-    <mergeCell ref="DW2:DX2"/>
-    <mergeCell ref="DY2:DZ2"/>
-    <mergeCell ref="EA2:EB2"/>
-    <mergeCell ref="EC2:ED2"/>
-    <mergeCell ref="EE2:EF2"/>
-    <mergeCell ref="HC2:HD2"/>
-    <mergeCell ref="GW1:HD1"/>
-    <mergeCell ref="GM2:GN2"/>
-    <mergeCell ref="GO2:GP2"/>
-    <mergeCell ref="GQ2:GR2"/>
-    <mergeCell ref="GS2:GT2"/>
-    <mergeCell ref="GU2:GV2"/>
-    <mergeCell ref="FO1:GV1"/>
-    <mergeCell ref="GW2:GX2"/>
-    <mergeCell ref="GY2:GZ2"/>
-    <mergeCell ref="HA2:HB2"/>
-    <mergeCell ref="FU2:FV2"/>
-    <mergeCell ref="FW2:FX2"/>
-    <mergeCell ref="FY2:FZ2"/>
-    <mergeCell ref="GA2:GB2"/>
-    <mergeCell ref="GC2:GD2"/>
-    <mergeCell ref="GE2:GF2"/>
-    <mergeCell ref="GG2:GH2"/>
-    <mergeCell ref="GI2:GJ2"/>
-    <mergeCell ref="GK2:GL2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="106">
@@ -70910,8 +70910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:GC11"/>
   <sheetViews>
-    <sheetView topLeftCell="DA1" workbookViewId="0">
-      <selection activeCell="DC8" sqref="DC8"/>
+    <sheetView topLeftCell="FW1" workbookViewId="0">
+      <selection activeCell="DC12" sqref="DC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -73524,54 +73524,12 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="T4:AB4"/>
-    <mergeCell ref="S3:AC3"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AE5:AH5"/>
-    <mergeCell ref="AI5:AM5"/>
-    <mergeCell ref="AE4:AM4"/>
-    <mergeCell ref="AD3:AO3"/>
-    <mergeCell ref="O2:AO2"/>
-    <mergeCell ref="AU5:AW5"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="AX4:BB4"/>
-    <mergeCell ref="AT3:BB3"/>
-    <mergeCell ref="AP2:BB2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="BI5:BK5"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BH3:BP3"/>
-    <mergeCell ref="BE2:BQ2"/>
-    <mergeCell ref="BV5:BX5"/>
-    <mergeCell ref="BU4:BX4"/>
-    <mergeCell ref="BY4:CC4"/>
-    <mergeCell ref="BU3:CC3"/>
-    <mergeCell ref="BR2:CD2"/>
-    <mergeCell ref="CI5:CK5"/>
-    <mergeCell ref="CH4:CK4"/>
-    <mergeCell ref="CL4:CP4"/>
-    <mergeCell ref="CH3:CP3"/>
-    <mergeCell ref="CE2:CQ2"/>
-    <mergeCell ref="CR2:CS2"/>
-    <mergeCell ref="CY3:DB3"/>
-    <mergeCell ref="CY2:DC2"/>
-    <mergeCell ref="DE4:DG4"/>
-    <mergeCell ref="DD3:DG3"/>
-    <mergeCell ref="DH3:DL3"/>
-    <mergeCell ref="DD2:DL2"/>
-    <mergeCell ref="DM2:DQ2"/>
-    <mergeCell ref="DS4:DU4"/>
-    <mergeCell ref="DR3:DU3"/>
+    <mergeCell ref="FI2:FK2"/>
+    <mergeCell ref="FM3:FQ3"/>
+    <mergeCell ref="FL2:FR2"/>
+    <mergeCell ref="FW3:FX3"/>
+    <mergeCell ref="FY3:FZ3"/>
+    <mergeCell ref="FV2:GC2"/>
     <mergeCell ref="DV3:DZ3"/>
     <mergeCell ref="DR2:DZ2"/>
     <mergeCell ref="EC3:EE3"/>
@@ -73583,12 +73541,54 @@
     <mergeCell ref="ET3:EV3"/>
     <mergeCell ref="EW3:FB3"/>
     <mergeCell ref="FC3:FH3"/>
-    <mergeCell ref="FI2:FK2"/>
-    <mergeCell ref="FM3:FQ3"/>
-    <mergeCell ref="FL2:FR2"/>
-    <mergeCell ref="FW3:FX3"/>
-    <mergeCell ref="FY3:FZ3"/>
-    <mergeCell ref="FV2:GC2"/>
+    <mergeCell ref="DH3:DL3"/>
+    <mergeCell ref="DD2:DL2"/>
+    <mergeCell ref="DM2:DQ2"/>
+    <mergeCell ref="DS4:DU4"/>
+    <mergeCell ref="DR3:DU3"/>
+    <mergeCell ref="CR2:CS2"/>
+    <mergeCell ref="CY3:DB3"/>
+    <mergeCell ref="CY2:DC2"/>
+    <mergeCell ref="DE4:DG4"/>
+    <mergeCell ref="DD3:DG3"/>
+    <mergeCell ref="CI5:CK5"/>
+    <mergeCell ref="CH4:CK4"/>
+    <mergeCell ref="CL4:CP4"/>
+    <mergeCell ref="CH3:CP3"/>
+    <mergeCell ref="CE2:CQ2"/>
+    <mergeCell ref="BV5:BX5"/>
+    <mergeCell ref="BU4:BX4"/>
+    <mergeCell ref="BY4:CC4"/>
+    <mergeCell ref="BU3:CC3"/>
+    <mergeCell ref="BR2:CD2"/>
+    <mergeCell ref="BI5:BK5"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BH3:BP3"/>
+    <mergeCell ref="BE2:BQ2"/>
+    <mergeCell ref="O2:AO2"/>
+    <mergeCell ref="AU5:AW5"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="AX4:BB4"/>
+    <mergeCell ref="AT3:BB3"/>
+    <mergeCell ref="AP2:BB2"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AE5:AH5"/>
+    <mergeCell ref="AI5:AM5"/>
+    <mergeCell ref="AE4:AM4"/>
+    <mergeCell ref="AD3:AO3"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="T4:AB4"/>
+    <mergeCell ref="S3:AC3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="FW9:FW1000001 FR9:FR1000001 FD9:FD1000001 EX9:EX1000001 CQ9:CQ1000001 CD9:CD1000001 BQ9 BQ11:BQ1000001 CT9 CT11:CT1000001" xr:uid="{00000000-0002-0000-0100-00000A000000}">
@@ -81579,134 +81579,58 @@
     </row>
   </sheetData>
   <mergeCells count="204">
-    <mergeCell ref="C3:P3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="A2:BB2"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BE4:BI4"/>
-    <mergeCell ref="BK6:BM6"/>
-    <mergeCell ref="BJ5:BM5"/>
-    <mergeCell ref="BN5:BR5"/>
-    <mergeCell ref="BJ4:BR4"/>
-    <mergeCell ref="BE3:BR3"/>
-    <mergeCell ref="BT3:BU3"/>
-    <mergeCell ref="Z4:AD4"/>
-    <mergeCell ref="V3:AD3"/>
-    <mergeCell ref="AH4:AL4"/>
-    <mergeCell ref="AG3:AM3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AR3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="H4:P4"/>
-    <mergeCell ref="DB3:DG3"/>
-    <mergeCell ref="BC2:DG2"/>
-    <mergeCell ref="DH3:DI3"/>
-    <mergeCell ref="DJ4:DN4"/>
-    <mergeCell ref="DP6:DR6"/>
-    <mergeCell ref="DO5:DR5"/>
-    <mergeCell ref="DS5:DW5"/>
-    <mergeCell ref="DO4:DW4"/>
-    <mergeCell ref="DJ3:DW3"/>
-    <mergeCell ref="BY5:CA5"/>
-    <mergeCell ref="BX4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="BX3:CF3"/>
-    <mergeCell ref="CJ4:CN4"/>
-    <mergeCell ref="CI3:CO3"/>
-    <mergeCell ref="CR3:CS3"/>
-    <mergeCell ref="CU4:CV4"/>
-    <mergeCell ref="CW4:CX4"/>
-    <mergeCell ref="CT3:DA3"/>
-    <mergeCell ref="DH2:FI2"/>
-    <mergeCell ref="FJ3:FK3"/>
-    <mergeCell ref="FL4:FP4"/>
-    <mergeCell ref="FR6:FT6"/>
-    <mergeCell ref="FQ5:FT5"/>
-    <mergeCell ref="FU5:FY5"/>
-    <mergeCell ref="FQ4:FY4"/>
-    <mergeCell ref="FL3:FY3"/>
-    <mergeCell ref="DY3:DZ3"/>
-    <mergeCell ref="ED5:EF5"/>
-    <mergeCell ref="EC4:EF4"/>
-    <mergeCell ref="EG4:EK4"/>
-    <mergeCell ref="EC3:EK3"/>
-    <mergeCell ref="EO4:ES4"/>
-    <mergeCell ref="EN3:ET3"/>
-    <mergeCell ref="EW3:EX3"/>
-    <mergeCell ref="EZ4:FA4"/>
-    <mergeCell ref="GF5:GH5"/>
-    <mergeCell ref="GE4:GH4"/>
-    <mergeCell ref="GI4:GM4"/>
-    <mergeCell ref="GE3:GM3"/>
-    <mergeCell ref="GQ4:GU4"/>
-    <mergeCell ref="GP3:GV3"/>
-    <mergeCell ref="GY3:GZ3"/>
-    <mergeCell ref="HB4:HC4"/>
-    <mergeCell ref="FB4:FC4"/>
-    <mergeCell ref="EY3:FF3"/>
-    <mergeCell ref="FG3:FI3"/>
-    <mergeCell ref="HD4:HE4"/>
-    <mergeCell ref="HA3:HH3"/>
-    <mergeCell ref="HN4:HP4"/>
-    <mergeCell ref="HQ4:HT4"/>
-    <mergeCell ref="HX4:HZ4"/>
-    <mergeCell ref="HI3:HZ3"/>
-    <mergeCell ref="FJ2:HZ2"/>
-    <mergeCell ref="IA3:IB3"/>
-    <mergeCell ref="IC4:IG4"/>
-    <mergeCell ref="GA3:GB3"/>
-    <mergeCell ref="II6:IK6"/>
-    <mergeCell ref="IH5:IK5"/>
-    <mergeCell ref="IL5:IP5"/>
-    <mergeCell ref="IH4:IP4"/>
-    <mergeCell ref="IC3:IP3"/>
-    <mergeCell ref="IR3:IS3"/>
-    <mergeCell ref="IW5:IY5"/>
-    <mergeCell ref="IV4:IY4"/>
-    <mergeCell ref="IZ4:JD4"/>
-    <mergeCell ref="IV3:JD3"/>
-    <mergeCell ref="JH4:JL4"/>
-    <mergeCell ref="JG3:JM3"/>
-    <mergeCell ref="JP3:JQ3"/>
-    <mergeCell ref="JS4:JT4"/>
-    <mergeCell ref="JU4:JV4"/>
-    <mergeCell ref="JR3:JY3"/>
-    <mergeCell ref="JZ3:KB3"/>
-    <mergeCell ref="IA2:KB2"/>
-    <mergeCell ref="KC3:KD3"/>
-    <mergeCell ref="KC2:MG2"/>
-    <mergeCell ref="KE4:KI4"/>
-    <mergeCell ref="KK6:KM6"/>
-    <mergeCell ref="KJ5:KM5"/>
-    <mergeCell ref="KN5:KR5"/>
-    <mergeCell ref="KJ4:KR4"/>
-    <mergeCell ref="KE3:KR3"/>
-    <mergeCell ref="KT3:KU3"/>
-    <mergeCell ref="KY5:LA5"/>
-    <mergeCell ref="KX4:LA4"/>
-    <mergeCell ref="MO4:MW4"/>
-    <mergeCell ref="MJ3:MW3"/>
-    <mergeCell ref="MY3:MZ3"/>
-    <mergeCell ref="ND5:NF5"/>
-    <mergeCell ref="NC4:NF4"/>
-    <mergeCell ref="LB4:LF4"/>
-    <mergeCell ref="KX3:LF3"/>
-    <mergeCell ref="LJ4:LN4"/>
-    <mergeCell ref="LI3:LO3"/>
-    <mergeCell ref="LR3:LS3"/>
-    <mergeCell ref="LU4:LV4"/>
-    <mergeCell ref="LW4:LX4"/>
-    <mergeCell ref="LT3:MA3"/>
-    <mergeCell ref="MB3:MG3"/>
+    <mergeCell ref="UO4:UP4"/>
+    <mergeCell ref="UL3:US3"/>
+    <mergeCell ref="UT3:UV3"/>
+    <mergeCell ref="SU2:UV2"/>
+    <mergeCell ref="TL3:TM3"/>
+    <mergeCell ref="TQ5:TS5"/>
+    <mergeCell ref="TP4:TS4"/>
+    <mergeCell ref="TT4:TX4"/>
+    <mergeCell ref="TP3:TX3"/>
+    <mergeCell ref="UB4:UF4"/>
+    <mergeCell ref="UA3:UG3"/>
+    <mergeCell ref="UJ3:UK3"/>
+    <mergeCell ref="UM4:UN4"/>
+    <mergeCell ref="SM4:SN4"/>
+    <mergeCell ref="SJ3:SQ3"/>
+    <mergeCell ref="SR3:ST3"/>
+    <mergeCell ref="QS2:ST2"/>
+    <mergeCell ref="SU3:SV3"/>
+    <mergeCell ref="SW4:TA4"/>
+    <mergeCell ref="TC6:TE6"/>
+    <mergeCell ref="TB5:TE5"/>
+    <mergeCell ref="TF5:TJ5"/>
+    <mergeCell ref="TB4:TJ4"/>
+    <mergeCell ref="SW3:TJ3"/>
+    <mergeCell ref="RJ3:RK3"/>
+    <mergeCell ref="RO5:RQ5"/>
+    <mergeCell ref="RN4:RQ4"/>
+    <mergeCell ref="RR4:RV4"/>
+    <mergeCell ref="RN3:RV3"/>
+    <mergeCell ref="RZ4:SD4"/>
+    <mergeCell ref="RY3:SE3"/>
+    <mergeCell ref="SH3:SI3"/>
+    <mergeCell ref="SK4:SL4"/>
+    <mergeCell ref="QL3:QR3"/>
+    <mergeCell ref="OM2:QR2"/>
+    <mergeCell ref="QS3:QT3"/>
+    <mergeCell ref="QU4:QY4"/>
+    <mergeCell ref="RA6:RC6"/>
+    <mergeCell ref="QZ5:RC5"/>
+    <mergeCell ref="RD5:RH5"/>
+    <mergeCell ref="QZ4:RH4"/>
+    <mergeCell ref="QU3:RH3"/>
+    <mergeCell ref="PI5:PK5"/>
+    <mergeCell ref="PH4:PK4"/>
+    <mergeCell ref="PL4:PP4"/>
+    <mergeCell ref="PH3:PP3"/>
+    <mergeCell ref="PT4:PX4"/>
+    <mergeCell ref="PS3:PY3"/>
+    <mergeCell ref="QB3:QC3"/>
+    <mergeCell ref="QE4:QF4"/>
+    <mergeCell ref="QG4:QH4"/>
+    <mergeCell ref="QD3:QK3"/>
     <mergeCell ref="MH2:OL2"/>
     <mergeCell ref="OM3:ON3"/>
     <mergeCell ref="OO4:OS4"/>
@@ -81731,58 +81655,134 @@
     <mergeCell ref="MP6:MR6"/>
     <mergeCell ref="MO5:MR5"/>
     <mergeCell ref="MS5:MW5"/>
-    <mergeCell ref="QL3:QR3"/>
-    <mergeCell ref="OM2:QR2"/>
-    <mergeCell ref="QS3:QT3"/>
-    <mergeCell ref="QU4:QY4"/>
-    <mergeCell ref="RA6:RC6"/>
-    <mergeCell ref="QZ5:RC5"/>
-    <mergeCell ref="RD5:RH5"/>
-    <mergeCell ref="QZ4:RH4"/>
-    <mergeCell ref="QU3:RH3"/>
-    <mergeCell ref="PI5:PK5"/>
-    <mergeCell ref="PH4:PK4"/>
-    <mergeCell ref="PL4:PP4"/>
-    <mergeCell ref="PH3:PP3"/>
-    <mergeCell ref="PT4:PX4"/>
-    <mergeCell ref="PS3:PY3"/>
-    <mergeCell ref="QB3:QC3"/>
-    <mergeCell ref="QE4:QF4"/>
-    <mergeCell ref="QG4:QH4"/>
-    <mergeCell ref="QD3:QK3"/>
-    <mergeCell ref="SM4:SN4"/>
-    <mergeCell ref="SJ3:SQ3"/>
-    <mergeCell ref="SR3:ST3"/>
-    <mergeCell ref="QS2:ST2"/>
-    <mergeCell ref="SU3:SV3"/>
-    <mergeCell ref="SW4:TA4"/>
-    <mergeCell ref="TC6:TE6"/>
-    <mergeCell ref="TB5:TE5"/>
-    <mergeCell ref="TF5:TJ5"/>
-    <mergeCell ref="TB4:TJ4"/>
-    <mergeCell ref="SW3:TJ3"/>
-    <mergeCell ref="RJ3:RK3"/>
-    <mergeCell ref="RO5:RQ5"/>
-    <mergeCell ref="RN4:RQ4"/>
-    <mergeCell ref="RR4:RV4"/>
-    <mergeCell ref="RN3:RV3"/>
-    <mergeCell ref="RZ4:SD4"/>
-    <mergeCell ref="RY3:SE3"/>
-    <mergeCell ref="SH3:SI3"/>
-    <mergeCell ref="SK4:SL4"/>
-    <mergeCell ref="UO4:UP4"/>
-    <mergeCell ref="UL3:US3"/>
-    <mergeCell ref="UT3:UV3"/>
-    <mergeCell ref="SU2:UV2"/>
-    <mergeCell ref="TL3:TM3"/>
-    <mergeCell ref="TQ5:TS5"/>
-    <mergeCell ref="TP4:TS4"/>
-    <mergeCell ref="TT4:TX4"/>
-    <mergeCell ref="TP3:TX3"/>
-    <mergeCell ref="UB4:UF4"/>
-    <mergeCell ref="UA3:UG3"/>
-    <mergeCell ref="UJ3:UK3"/>
-    <mergeCell ref="UM4:UN4"/>
+    <mergeCell ref="MY3:MZ3"/>
+    <mergeCell ref="ND5:NF5"/>
+    <mergeCell ref="NC4:NF4"/>
+    <mergeCell ref="LB4:LF4"/>
+    <mergeCell ref="KX3:LF3"/>
+    <mergeCell ref="LJ4:LN4"/>
+    <mergeCell ref="LI3:LO3"/>
+    <mergeCell ref="LR3:LS3"/>
+    <mergeCell ref="LU4:LV4"/>
+    <mergeCell ref="LW4:LX4"/>
+    <mergeCell ref="LT3:MA3"/>
+    <mergeCell ref="MB3:MG3"/>
+    <mergeCell ref="KK6:KM6"/>
+    <mergeCell ref="KJ5:KM5"/>
+    <mergeCell ref="KN5:KR5"/>
+    <mergeCell ref="KJ4:KR4"/>
+    <mergeCell ref="KE3:KR3"/>
+    <mergeCell ref="KT3:KU3"/>
+    <mergeCell ref="KY5:LA5"/>
+    <mergeCell ref="KX4:LA4"/>
+    <mergeCell ref="MO4:MW4"/>
+    <mergeCell ref="MJ3:MW3"/>
+    <mergeCell ref="JH4:JL4"/>
+    <mergeCell ref="JG3:JM3"/>
+    <mergeCell ref="JP3:JQ3"/>
+    <mergeCell ref="JS4:JT4"/>
+    <mergeCell ref="JU4:JV4"/>
+    <mergeCell ref="JR3:JY3"/>
+    <mergeCell ref="JZ3:KB3"/>
+    <mergeCell ref="IA2:KB2"/>
+    <mergeCell ref="KC3:KD3"/>
+    <mergeCell ref="KC2:MG2"/>
+    <mergeCell ref="KE4:KI4"/>
+    <mergeCell ref="II6:IK6"/>
+    <mergeCell ref="IH5:IK5"/>
+    <mergeCell ref="IL5:IP5"/>
+    <mergeCell ref="IH4:IP4"/>
+    <mergeCell ref="IC3:IP3"/>
+    <mergeCell ref="IR3:IS3"/>
+    <mergeCell ref="IW5:IY5"/>
+    <mergeCell ref="IV4:IY4"/>
+    <mergeCell ref="IZ4:JD4"/>
+    <mergeCell ref="IV3:JD3"/>
+    <mergeCell ref="HD4:HE4"/>
+    <mergeCell ref="HA3:HH3"/>
+    <mergeCell ref="HN4:HP4"/>
+    <mergeCell ref="HQ4:HT4"/>
+    <mergeCell ref="HX4:HZ4"/>
+    <mergeCell ref="HI3:HZ3"/>
+    <mergeCell ref="FJ2:HZ2"/>
+    <mergeCell ref="IA3:IB3"/>
+    <mergeCell ref="IC4:IG4"/>
+    <mergeCell ref="GA3:GB3"/>
+    <mergeCell ref="GF5:GH5"/>
+    <mergeCell ref="GE4:GH4"/>
+    <mergeCell ref="GI4:GM4"/>
+    <mergeCell ref="GE3:GM3"/>
+    <mergeCell ref="GQ4:GU4"/>
+    <mergeCell ref="GP3:GV3"/>
+    <mergeCell ref="GY3:GZ3"/>
+    <mergeCell ref="HB4:HC4"/>
+    <mergeCell ref="FB4:FC4"/>
+    <mergeCell ref="EY3:FF3"/>
+    <mergeCell ref="FG3:FI3"/>
+    <mergeCell ref="FJ3:FK3"/>
+    <mergeCell ref="FL4:FP4"/>
+    <mergeCell ref="FR6:FT6"/>
+    <mergeCell ref="FQ5:FT5"/>
+    <mergeCell ref="FU5:FY5"/>
+    <mergeCell ref="FQ4:FY4"/>
+    <mergeCell ref="FL3:FY3"/>
+    <mergeCell ref="DY3:DZ3"/>
+    <mergeCell ref="ED5:EF5"/>
+    <mergeCell ref="EC4:EF4"/>
+    <mergeCell ref="EG4:EK4"/>
+    <mergeCell ref="EC3:EK3"/>
+    <mergeCell ref="EO4:ES4"/>
+    <mergeCell ref="EN3:ET3"/>
+    <mergeCell ref="EW3:EX3"/>
+    <mergeCell ref="EZ4:FA4"/>
+    <mergeCell ref="DB3:DG3"/>
+    <mergeCell ref="BC2:DG2"/>
+    <mergeCell ref="DH3:DI3"/>
+    <mergeCell ref="DJ4:DN4"/>
+    <mergeCell ref="DP6:DR6"/>
+    <mergeCell ref="DO5:DR5"/>
+    <mergeCell ref="DS5:DW5"/>
+    <mergeCell ref="DO4:DW4"/>
+    <mergeCell ref="DJ3:DW3"/>
+    <mergeCell ref="BY5:CA5"/>
+    <mergeCell ref="BX4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="BX3:CF3"/>
+    <mergeCell ref="CJ4:CN4"/>
+    <mergeCell ref="CI3:CO3"/>
+    <mergeCell ref="CR3:CS3"/>
+    <mergeCell ref="CU4:CV4"/>
+    <mergeCell ref="CW4:CX4"/>
+    <mergeCell ref="CT3:DA3"/>
+    <mergeCell ref="DH2:FI2"/>
+    <mergeCell ref="BN5:BR5"/>
+    <mergeCell ref="BJ4:BR4"/>
+    <mergeCell ref="BE3:BR3"/>
+    <mergeCell ref="BT3:BU3"/>
+    <mergeCell ref="Z4:AD4"/>
+    <mergeCell ref="V3:AD3"/>
+    <mergeCell ref="AH4:AL4"/>
+    <mergeCell ref="AG3:AM3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AR3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="C3:P3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="A2:BB2"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BE4:BI4"/>
+    <mergeCell ref="BK6:BM6"/>
+    <mergeCell ref="BJ5:BM5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="H4:P4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U9:U1000001 UM9:UM1000001 UG9:UG1000001 TY9:TZ1000001 TO9:TO1000001 SK9:SK1000001 SE9:SE1000001 RW9:RX1000001 RM9:RM1000001 QE9:QE1000001 PY9:PY1000001 PQ9:PR1000001 PG9:PG1000001 NZ9:NZ1000001 NT9:NT1000001 NL9:NM1000001 NB9:NB1000001 LU9:LU1000001 LO9:LO1000001 LG9:LH1000001 KW9:KW1000001 JS9:JS1000001 JM9:JM1000001 JE9:JF1000001 IU9:IU1000001 HB9:HB1000001 GV9:GV1000001 GN9:GO1000001 GD9:GD1000001 EZ9:EZ1000001 ET9:ET1000001 EL9:EM1000001 EB9:EB1000001 CU9:CU1000001 CO9:CO1000001 CG9:CH1000001 BW9:BW1000001 AS9:AS1000001 AM9:AM1000001 AE9:AF1000001" xr:uid="{00000000-0002-0000-0200-000001000000}">
@@ -82204,8 +82204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CZ13"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="CS1" workbookViewId="0">
+      <selection activeCell="CU16" sqref="CU16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -83661,6 +83661,12 @@
       <c r="CS9" t="s">
         <v>5010</v>
       </c>
+      <c r="CU9">
+        <v>2017</v>
+      </c>
+      <c r="CW9" t="s">
+        <v>5016</v>
+      </c>
       <c r="CY9" t="s">
         <v>151</v>
       </c>
@@ -83684,6 +83690,12 @@
       <c r="CS10" t="s">
         <v>5011</v>
       </c>
+      <c r="CU10">
+        <v>2017</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>5016</v>
+      </c>
       <c r="CY10" t="s">
         <v>151</v>
       </c>
@@ -83695,6 +83707,12 @@
       <c r="CS11" t="s">
         <v>5012</v>
       </c>
+      <c r="CU11">
+        <v>2017</v>
+      </c>
+      <c r="CW11" t="s">
+        <v>5016</v>
+      </c>
       <c r="CY11" t="s">
         <v>151</v>
       </c>
@@ -83769,6 +83787,12 @@
       <c r="CS12" t="s">
         <v>5024</v>
       </c>
+      <c r="CU12">
+        <v>2017</v>
+      </c>
+      <c r="CW12" t="s">
+        <v>5016</v>
+      </c>
       <c r="CY12" t="s">
         <v>151</v>
       </c>
@@ -83804,18 +83828,15 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="L3:AF3"/>
-    <mergeCell ref="L2:AF2"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="AG3:AL3"/>
-    <mergeCell ref="AG2:AL2"/>
+    <mergeCell ref="BZ5:CD5"/>
+    <mergeCell ref="BV4:CD4"/>
+    <mergeCell ref="CV3:CW3"/>
+    <mergeCell ref="CS2:CZ2"/>
+    <mergeCell ref="AM2:CH2"/>
+    <mergeCell ref="CI2:CJ2"/>
+    <mergeCell ref="CM3:CQ3"/>
+    <mergeCell ref="CL2:CR2"/>
+    <mergeCell ref="CT3:CU3"/>
     <mergeCell ref="BC5:BG5"/>
     <mergeCell ref="AY4:BG4"/>
     <mergeCell ref="AM3:BI3"/>
@@ -83832,15 +83853,18 @@
     <mergeCell ref="BL4:BT4"/>
     <mergeCell ref="BW6:BY6"/>
     <mergeCell ref="BV5:BY5"/>
-    <mergeCell ref="BZ5:CD5"/>
-    <mergeCell ref="BV4:CD4"/>
-    <mergeCell ref="CV3:CW3"/>
-    <mergeCell ref="CS2:CZ2"/>
-    <mergeCell ref="AM2:CH2"/>
-    <mergeCell ref="CI2:CJ2"/>
-    <mergeCell ref="CM3:CQ3"/>
-    <mergeCell ref="CL2:CR2"/>
-    <mergeCell ref="CT3:CU3"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="L3:AF3"/>
+    <mergeCell ref="L2:AF2"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="AG3:AL3"/>
+    <mergeCell ref="AG2:AL2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="X4:AA4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E1000001 CT9:CT1000001 CR9:CR1000001 BK9:BK1000001 AN9:AN1000001 P9:P1000001 J9:K1000001" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -84686,17 +84710,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="W3:Z3"/>
     <mergeCell ref="AW3:AX3"/>
     <mergeCell ref="AY3:AZ3"/>
     <mergeCell ref="AV2:BC2"/>
@@ -84706,6 +84719,17 @@
     <mergeCell ref="AK2:AM2"/>
     <mergeCell ref="AP3:AT3"/>
     <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="K3:N3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW7:AW1000001 AU7:AU1000001 AF7:AG1000001" xr:uid="{00000000-0002-0000-0400-000000000000}">

--- a/tests/data/filled_templates/geologie_template_full.xlsx
+++ b/tests/data/filled_templates/geologie_template_full.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ArneDegrave\PycharmProjects\xls2xml\tests\data\filled_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RubenVijverman\PycharmProjects\xls2xml\tests\data\filled_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEECB365-5C96-41DC-841F-1AA076CD03F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C930F0-9BED-419E-BF3F-A8FACC7A8464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codelijsten" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20523" uniqueCount="5025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20525" uniqueCount="5026">
   <si>
     <t>identificatie</t>
   </si>
@@ -15023,9 +15023,6 @@
     <t>https://www.dov.vlaanderen.be/data/interpretatie/1896-044741</t>
   </si>
   <si>
-    <t>1896-04-14</t>
-  </si>
-  <si>
     <t>0.80</t>
   </si>
   <si>
@@ -15099,6 +15096,12 @@
   </si>
   <si>
     <t>Schuifweerstandskarakteristieken</t>
+  </si>
+  <si>
+    <t>empty_field</t>
+  </si>
+  <si>
+    <t>GEO-79/352</t>
   </si>
 </sst>
 </file>
@@ -15198,7 +15201,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -70683,26 +70686,72 @@
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="HC2:HD2"/>
-    <mergeCell ref="GW1:HD1"/>
-    <mergeCell ref="GM2:GN2"/>
-    <mergeCell ref="GO2:GP2"/>
-    <mergeCell ref="GQ2:GR2"/>
-    <mergeCell ref="GS2:GT2"/>
-    <mergeCell ref="GU2:GV2"/>
-    <mergeCell ref="FO1:GV1"/>
-    <mergeCell ref="GW2:GX2"/>
-    <mergeCell ref="GY2:GZ2"/>
-    <mergeCell ref="HA2:HB2"/>
-    <mergeCell ref="FU2:FV2"/>
-    <mergeCell ref="FW2:FX2"/>
-    <mergeCell ref="FY2:FZ2"/>
-    <mergeCell ref="GA2:GB2"/>
-    <mergeCell ref="GC2:GD2"/>
-    <mergeCell ref="GE2:GF2"/>
-    <mergeCell ref="GG2:GH2"/>
-    <mergeCell ref="GI2:GJ2"/>
-    <mergeCell ref="GK2:GL2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="A1:BD1"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BK2:BL2"/>
+    <mergeCell ref="BM2:BN2"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="BQ2:BR2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="BS2:BT2"/>
+    <mergeCell ref="BU2:BV2"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="BY2:BZ2"/>
+    <mergeCell ref="CA2:CB2"/>
+    <mergeCell ref="CC2:CD2"/>
+    <mergeCell ref="CE2:CF2"/>
+    <mergeCell ref="CG2:CH2"/>
+    <mergeCell ref="CI2:CJ2"/>
+    <mergeCell ref="CK2:CL2"/>
+    <mergeCell ref="CM2:CN2"/>
+    <mergeCell ref="CO2:CP2"/>
+    <mergeCell ref="CQ2:CR2"/>
+    <mergeCell ref="CS2:CT2"/>
+    <mergeCell ref="CU2:CV2"/>
+    <mergeCell ref="CW2:CX2"/>
+    <mergeCell ref="CY2:CZ2"/>
+    <mergeCell ref="DA2:DB2"/>
+    <mergeCell ref="EG2:EH2"/>
+    <mergeCell ref="EI2:EJ2"/>
+    <mergeCell ref="EK2:EL2"/>
+    <mergeCell ref="DC2:DD2"/>
+    <mergeCell ref="DE2:DF2"/>
+    <mergeCell ref="DG2:DH2"/>
+    <mergeCell ref="DI2:DJ2"/>
+    <mergeCell ref="DK2:DL2"/>
+    <mergeCell ref="DM2:DN2"/>
+    <mergeCell ref="DO2:DP2"/>
+    <mergeCell ref="DQ2:DR2"/>
+    <mergeCell ref="DS2:DT2"/>
     <mergeCell ref="FE2:FF2"/>
     <mergeCell ref="FG2:FH2"/>
     <mergeCell ref="FI2:FJ2"/>
@@ -70727,72 +70776,26 @@
     <mergeCell ref="EA2:EB2"/>
     <mergeCell ref="EC2:ED2"/>
     <mergeCell ref="EE2:EF2"/>
-    <mergeCell ref="EG2:EH2"/>
-    <mergeCell ref="EI2:EJ2"/>
-    <mergeCell ref="EK2:EL2"/>
-    <mergeCell ref="DC2:DD2"/>
-    <mergeCell ref="DE2:DF2"/>
-    <mergeCell ref="DG2:DH2"/>
-    <mergeCell ref="DI2:DJ2"/>
-    <mergeCell ref="DK2:DL2"/>
-    <mergeCell ref="DM2:DN2"/>
-    <mergeCell ref="DO2:DP2"/>
-    <mergeCell ref="DQ2:DR2"/>
-    <mergeCell ref="DS2:DT2"/>
-    <mergeCell ref="CK2:CL2"/>
-    <mergeCell ref="CM2:CN2"/>
-    <mergeCell ref="CO2:CP2"/>
-    <mergeCell ref="CQ2:CR2"/>
-    <mergeCell ref="CS2:CT2"/>
-    <mergeCell ref="CU2:CV2"/>
-    <mergeCell ref="CW2:CX2"/>
-    <mergeCell ref="CY2:CZ2"/>
-    <mergeCell ref="DA2:DB2"/>
-    <mergeCell ref="BS2:BT2"/>
-    <mergeCell ref="BU2:BV2"/>
-    <mergeCell ref="BW2:BX2"/>
-    <mergeCell ref="BY2:BZ2"/>
-    <mergeCell ref="CA2:CB2"/>
-    <mergeCell ref="CC2:CD2"/>
-    <mergeCell ref="CE2:CF2"/>
-    <mergeCell ref="CG2:CH2"/>
-    <mergeCell ref="CI2:CJ2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="A1:BD1"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BK2:BL2"/>
-    <mergeCell ref="BM2:BN2"/>
-    <mergeCell ref="BO2:BP2"/>
-    <mergeCell ref="BQ2:BR2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="HC2:HD2"/>
+    <mergeCell ref="GW1:HD1"/>
+    <mergeCell ref="GM2:GN2"/>
+    <mergeCell ref="GO2:GP2"/>
+    <mergeCell ref="GQ2:GR2"/>
+    <mergeCell ref="GS2:GT2"/>
+    <mergeCell ref="GU2:GV2"/>
+    <mergeCell ref="FO1:GV1"/>
+    <mergeCell ref="GW2:GX2"/>
+    <mergeCell ref="GY2:GZ2"/>
+    <mergeCell ref="HA2:HB2"/>
+    <mergeCell ref="FU2:FV2"/>
+    <mergeCell ref="FW2:FX2"/>
+    <mergeCell ref="FY2:FZ2"/>
+    <mergeCell ref="GA2:GB2"/>
+    <mergeCell ref="GC2:GD2"/>
+    <mergeCell ref="GE2:GF2"/>
+    <mergeCell ref="GG2:GH2"/>
+    <mergeCell ref="GI2:GJ2"/>
+    <mergeCell ref="GK2:GL2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="106">
@@ -70910,8 +70913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:GC11"/>
   <sheetViews>
-    <sheetView topLeftCell="FW1" workbookViewId="0">
-      <selection activeCell="DC12" sqref="DC12"/>
+    <sheetView topLeftCell="FR1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -73334,6 +73337,9 @@
       <c r="C9" t="s">
         <v>4963</v>
       </c>
+      <c r="D9" t="s">
+        <v>4970</v>
+      </c>
       <c r="M9" t="s">
         <v>4964</v>
       </c>
@@ -73378,6 +73384,9 @@
       </c>
       <c r="CW9" t="s">
         <v>664</v>
+      </c>
+      <c r="DA9" t="s">
+        <v>5024</v>
       </c>
       <c r="DC9" t="s">
         <v>732</v>
@@ -73521,15 +73530,60 @@
       <c r="FC11" t="s">
         <v>4983</v>
       </c>
+      <c r="FS11" t="s">
+        <v>5025</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="FI2:FK2"/>
-    <mergeCell ref="FM3:FQ3"/>
-    <mergeCell ref="FL2:FR2"/>
-    <mergeCell ref="FW3:FX3"/>
-    <mergeCell ref="FY3:FZ3"/>
-    <mergeCell ref="FV2:GC2"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="T4:AB4"/>
+    <mergeCell ref="S3:AC3"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AE5:AH5"/>
+    <mergeCell ref="AI5:AM5"/>
+    <mergeCell ref="AE4:AM4"/>
+    <mergeCell ref="AD3:AO3"/>
+    <mergeCell ref="O2:AO2"/>
+    <mergeCell ref="AU5:AW5"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="AX4:BB4"/>
+    <mergeCell ref="AT3:BB3"/>
+    <mergeCell ref="AP2:BB2"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="BI5:BK5"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BH3:BP3"/>
+    <mergeCell ref="BE2:BQ2"/>
+    <mergeCell ref="BV5:BX5"/>
+    <mergeCell ref="BU4:BX4"/>
+    <mergeCell ref="BY4:CC4"/>
+    <mergeCell ref="BU3:CC3"/>
+    <mergeCell ref="BR2:CD2"/>
+    <mergeCell ref="CI5:CK5"/>
+    <mergeCell ref="CH4:CK4"/>
+    <mergeCell ref="CL4:CP4"/>
+    <mergeCell ref="CH3:CP3"/>
+    <mergeCell ref="CE2:CQ2"/>
+    <mergeCell ref="CR2:CS2"/>
+    <mergeCell ref="CY3:DB3"/>
+    <mergeCell ref="CY2:DC2"/>
+    <mergeCell ref="DE4:DG4"/>
+    <mergeCell ref="DD3:DG3"/>
+    <mergeCell ref="DH3:DL3"/>
+    <mergeCell ref="DD2:DL2"/>
+    <mergeCell ref="DM2:DQ2"/>
+    <mergeCell ref="DS4:DU4"/>
+    <mergeCell ref="DR3:DU3"/>
     <mergeCell ref="DV3:DZ3"/>
     <mergeCell ref="DR2:DZ2"/>
     <mergeCell ref="EC3:EE3"/>
@@ -73541,54 +73595,12 @@
     <mergeCell ref="ET3:EV3"/>
     <mergeCell ref="EW3:FB3"/>
     <mergeCell ref="FC3:FH3"/>
-    <mergeCell ref="DH3:DL3"/>
-    <mergeCell ref="DD2:DL2"/>
-    <mergeCell ref="DM2:DQ2"/>
-    <mergeCell ref="DS4:DU4"/>
-    <mergeCell ref="DR3:DU3"/>
-    <mergeCell ref="CR2:CS2"/>
-    <mergeCell ref="CY3:DB3"/>
-    <mergeCell ref="CY2:DC2"/>
-    <mergeCell ref="DE4:DG4"/>
-    <mergeCell ref="DD3:DG3"/>
-    <mergeCell ref="CI5:CK5"/>
-    <mergeCell ref="CH4:CK4"/>
-    <mergeCell ref="CL4:CP4"/>
-    <mergeCell ref="CH3:CP3"/>
-    <mergeCell ref="CE2:CQ2"/>
-    <mergeCell ref="BV5:BX5"/>
-    <mergeCell ref="BU4:BX4"/>
-    <mergeCell ref="BY4:CC4"/>
-    <mergeCell ref="BU3:CC3"/>
-    <mergeCell ref="BR2:CD2"/>
-    <mergeCell ref="BI5:BK5"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BH3:BP3"/>
-    <mergeCell ref="BE2:BQ2"/>
-    <mergeCell ref="O2:AO2"/>
-    <mergeCell ref="AU5:AW5"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="AX4:BB4"/>
-    <mergeCell ref="AT3:BB3"/>
-    <mergeCell ref="AP2:BB2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AE5:AH5"/>
-    <mergeCell ref="AI5:AM5"/>
-    <mergeCell ref="AE4:AM4"/>
-    <mergeCell ref="AD3:AO3"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="T4:AB4"/>
-    <mergeCell ref="S3:AC3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="FI2:FK2"/>
+    <mergeCell ref="FM3:FQ3"/>
+    <mergeCell ref="FL2:FR2"/>
+    <mergeCell ref="FW3:FX3"/>
+    <mergeCell ref="FY3:FZ3"/>
+    <mergeCell ref="FV2:GC2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="FW9:FW1000001 FR9:FR1000001 FD9:FD1000001 EX9:EX1000001 CQ9:CQ1000001 CD9:CD1000001 BQ9 BQ11:BQ1000001 CT9 CT11:CT1000001" xr:uid="{00000000-0002-0000-0100-00000A000000}">
@@ -73807,8 +73819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:UV13"/>
   <sheetViews>
-    <sheetView topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="BB13" sqref="BB13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -81469,168 +81481,244 @@
       </c>
     </row>
     <row r="9" spans="1:568" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="DH9" t="s">
         <v>4984</v>
       </c>
-      <c r="C9" t="s">
+      <c r="DJ9" t="s">
         <v>4736</v>
       </c>
-      <c r="H9" t="s">
+      <c r="DO9" t="s">
         <v>4985</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="DX9" t="s">
         <v>292</v>
       </c>
-      <c r="V9" t="s">
+      <c r="EC9" t="s">
         <v>293</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="EW9" t="s">
         <v>4986</v>
       </c>
-      <c r="AQ9" t="s">
+      <c r="EX9" t="s">
         <v>4736</v>
       </c>
-      <c r="AZ9" t="s">
+      <c r="FG9" t="s">
         <v>4962</v>
       </c>
-      <c r="BA9" t="s">
+      <c r="FH9" t="s">
         <v>4987</v>
       </c>
-      <c r="BB9" t="s">
+      <c r="FI9" t="s">
         <v>4990</v>
       </c>
     </row>
     <row r="10" spans="1:568" x14ac:dyDescent="0.3">
-      <c r="AZ10" t="s">
+      <c r="FG10" t="s">
         <v>4987</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="FH10" t="s">
         <v>4988</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="FI10" t="s">
         <v>4991</v>
       </c>
     </row>
     <row r="11" spans="1:568" x14ac:dyDescent="0.3">
-      <c r="AZ11" t="s">
+      <c r="FG11" t="s">
         <v>4988</v>
       </c>
-      <c r="BA11" t="s">
+      <c r="FH11" t="s">
         <v>4989</v>
       </c>
-      <c r="BB11" t="s">
+      <c r="FI11" t="s">
         <v>4992</v>
       </c>
     </row>
     <row r="12" spans="1:568" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="DH12" t="s">
         <v>4993</v>
       </c>
-      <c r="C12" t="s">
+      <c r="DJ12" t="s">
         <v>4994</v>
       </c>
-      <c r="D12" t="s">
+      <c r="DK12" t="s">
         <v>4995</v>
       </c>
-      <c r="H12" t="s">
+      <c r="DO12" t="s">
         <v>4996</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="DX12" t="s">
         <v>292</v>
       </c>
-      <c r="R12" t="s">
+      <c r="DY12" t="s">
         <v>4997</v>
       </c>
-      <c r="S12" t="s">
+      <c r="DZ12" t="s">
         <v>4998</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="EB12" s="2">
+        <v>35169</v>
+      </c>
+      <c r="EC12" t="s">
+        <v>293</v>
+      </c>
+      <c r="EW12" t="s">
+        <v>4986</v>
+      </c>
+      <c r="EX12" t="s">
+        <v>4736</v>
+      </c>
+      <c r="FG12" t="s">
+        <v>4962</v>
+      </c>
+      <c r="FH12" t="s">
         <v>4999</v>
       </c>
-      <c r="V12" t="s">
-        <v>293</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>4986</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>4736</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>4962</v>
-      </c>
-      <c r="BA12" t="s">
+      <c r="FI12" t="s">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:568" x14ac:dyDescent="0.3">
+      <c r="FG13" t="s">
+        <v>4999</v>
+      </c>
+      <c r="FH13" t="s">
         <v>5000</v>
       </c>
-      <c r="BB12" t="s">
+      <c r="FI13" t="s">
         <v>5002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:568" x14ac:dyDescent="0.3">
-      <c r="AZ13" t="s">
-        <v>5000</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>5001</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>5003</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="204">
-    <mergeCell ref="UO4:UP4"/>
-    <mergeCell ref="UL3:US3"/>
-    <mergeCell ref="UT3:UV3"/>
-    <mergeCell ref="SU2:UV2"/>
-    <mergeCell ref="TL3:TM3"/>
-    <mergeCell ref="TQ5:TS5"/>
-    <mergeCell ref="TP4:TS4"/>
-    <mergeCell ref="TT4:TX4"/>
-    <mergeCell ref="TP3:TX3"/>
-    <mergeCell ref="UB4:UF4"/>
-    <mergeCell ref="UA3:UG3"/>
-    <mergeCell ref="UJ3:UK3"/>
-    <mergeCell ref="UM4:UN4"/>
-    <mergeCell ref="SM4:SN4"/>
-    <mergeCell ref="SJ3:SQ3"/>
-    <mergeCell ref="SR3:ST3"/>
-    <mergeCell ref="QS2:ST2"/>
-    <mergeCell ref="SU3:SV3"/>
-    <mergeCell ref="SW4:TA4"/>
-    <mergeCell ref="TC6:TE6"/>
-    <mergeCell ref="TB5:TE5"/>
-    <mergeCell ref="TF5:TJ5"/>
-    <mergeCell ref="TB4:TJ4"/>
-    <mergeCell ref="SW3:TJ3"/>
-    <mergeCell ref="RJ3:RK3"/>
-    <mergeCell ref="RO5:RQ5"/>
-    <mergeCell ref="RN4:RQ4"/>
-    <mergeCell ref="RR4:RV4"/>
-    <mergeCell ref="RN3:RV3"/>
-    <mergeCell ref="RZ4:SD4"/>
-    <mergeCell ref="RY3:SE3"/>
-    <mergeCell ref="SH3:SI3"/>
-    <mergeCell ref="SK4:SL4"/>
-    <mergeCell ref="QL3:QR3"/>
-    <mergeCell ref="OM2:QR2"/>
-    <mergeCell ref="QS3:QT3"/>
-    <mergeCell ref="QU4:QY4"/>
-    <mergeCell ref="RA6:RC6"/>
-    <mergeCell ref="QZ5:RC5"/>
-    <mergeCell ref="RD5:RH5"/>
-    <mergeCell ref="QZ4:RH4"/>
-    <mergeCell ref="QU3:RH3"/>
-    <mergeCell ref="PI5:PK5"/>
-    <mergeCell ref="PH4:PK4"/>
-    <mergeCell ref="PL4:PP4"/>
-    <mergeCell ref="PH3:PP3"/>
-    <mergeCell ref="PT4:PX4"/>
-    <mergeCell ref="PS3:PY3"/>
-    <mergeCell ref="QB3:QC3"/>
-    <mergeCell ref="QE4:QF4"/>
-    <mergeCell ref="QG4:QH4"/>
-    <mergeCell ref="QD3:QK3"/>
+    <mergeCell ref="C3:P3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="A2:BB2"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BE4:BI4"/>
+    <mergeCell ref="BK6:BM6"/>
+    <mergeCell ref="BJ5:BM5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="H4:P4"/>
+    <mergeCell ref="Z4:AD4"/>
+    <mergeCell ref="V3:AD3"/>
+    <mergeCell ref="AH4:AL4"/>
+    <mergeCell ref="AG3:AM3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AR3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="DB3:DG3"/>
+    <mergeCell ref="BC2:DG2"/>
+    <mergeCell ref="DH3:DI3"/>
+    <mergeCell ref="DJ4:DN4"/>
+    <mergeCell ref="DP6:DR6"/>
+    <mergeCell ref="DO5:DR5"/>
+    <mergeCell ref="DS5:DW5"/>
+    <mergeCell ref="DO4:DW4"/>
+    <mergeCell ref="DJ3:DW3"/>
+    <mergeCell ref="BY5:CA5"/>
+    <mergeCell ref="BX4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="BX3:CF3"/>
+    <mergeCell ref="CJ4:CN4"/>
+    <mergeCell ref="CI3:CO3"/>
+    <mergeCell ref="CR3:CS3"/>
+    <mergeCell ref="CU4:CV4"/>
+    <mergeCell ref="CW4:CX4"/>
+    <mergeCell ref="CT3:DA3"/>
+    <mergeCell ref="DH2:FI2"/>
+    <mergeCell ref="BN5:BR5"/>
+    <mergeCell ref="BJ4:BR4"/>
+    <mergeCell ref="BE3:BR3"/>
+    <mergeCell ref="BT3:BU3"/>
+    <mergeCell ref="FR6:FT6"/>
+    <mergeCell ref="FQ5:FT5"/>
+    <mergeCell ref="FU5:FY5"/>
+    <mergeCell ref="FQ4:FY4"/>
+    <mergeCell ref="FL3:FY3"/>
+    <mergeCell ref="DY3:DZ3"/>
+    <mergeCell ref="ED5:EF5"/>
+    <mergeCell ref="EC4:EF4"/>
+    <mergeCell ref="EG4:EK4"/>
+    <mergeCell ref="EC3:EK3"/>
+    <mergeCell ref="EO4:ES4"/>
+    <mergeCell ref="EN3:ET3"/>
+    <mergeCell ref="EW3:EX3"/>
+    <mergeCell ref="EZ4:FA4"/>
+    <mergeCell ref="GF5:GH5"/>
+    <mergeCell ref="GE4:GH4"/>
+    <mergeCell ref="GI4:GM4"/>
+    <mergeCell ref="GE3:GM3"/>
+    <mergeCell ref="GQ4:GU4"/>
+    <mergeCell ref="GP3:GV3"/>
+    <mergeCell ref="GY3:GZ3"/>
+    <mergeCell ref="HB4:HC4"/>
+    <mergeCell ref="FB4:FC4"/>
+    <mergeCell ref="EY3:FF3"/>
+    <mergeCell ref="FG3:FI3"/>
+    <mergeCell ref="FJ3:FK3"/>
+    <mergeCell ref="FL4:FP4"/>
+    <mergeCell ref="HD4:HE4"/>
+    <mergeCell ref="HA3:HH3"/>
+    <mergeCell ref="HN4:HP4"/>
+    <mergeCell ref="HQ4:HT4"/>
+    <mergeCell ref="HX4:HZ4"/>
+    <mergeCell ref="HI3:HZ3"/>
+    <mergeCell ref="FJ2:HZ2"/>
+    <mergeCell ref="IA3:IB3"/>
+    <mergeCell ref="IC4:IG4"/>
+    <mergeCell ref="GA3:GB3"/>
+    <mergeCell ref="II6:IK6"/>
+    <mergeCell ref="IH5:IK5"/>
+    <mergeCell ref="IL5:IP5"/>
+    <mergeCell ref="IH4:IP4"/>
+    <mergeCell ref="IC3:IP3"/>
+    <mergeCell ref="IR3:IS3"/>
+    <mergeCell ref="IW5:IY5"/>
+    <mergeCell ref="IV4:IY4"/>
+    <mergeCell ref="IZ4:JD4"/>
+    <mergeCell ref="IV3:JD3"/>
+    <mergeCell ref="JH4:JL4"/>
+    <mergeCell ref="JG3:JM3"/>
+    <mergeCell ref="JP3:JQ3"/>
+    <mergeCell ref="JS4:JT4"/>
+    <mergeCell ref="JU4:JV4"/>
+    <mergeCell ref="JR3:JY3"/>
+    <mergeCell ref="JZ3:KB3"/>
+    <mergeCell ref="IA2:KB2"/>
+    <mergeCell ref="KC3:KD3"/>
+    <mergeCell ref="KC2:MG2"/>
+    <mergeCell ref="KE4:KI4"/>
+    <mergeCell ref="KK6:KM6"/>
+    <mergeCell ref="KJ5:KM5"/>
+    <mergeCell ref="KN5:KR5"/>
+    <mergeCell ref="KJ4:KR4"/>
+    <mergeCell ref="KE3:KR3"/>
+    <mergeCell ref="KT3:KU3"/>
+    <mergeCell ref="KY5:LA5"/>
+    <mergeCell ref="KX4:LA4"/>
+    <mergeCell ref="MO4:MW4"/>
+    <mergeCell ref="MJ3:MW3"/>
+    <mergeCell ref="MY3:MZ3"/>
+    <mergeCell ref="ND5:NF5"/>
+    <mergeCell ref="NC4:NF4"/>
+    <mergeCell ref="LB4:LF4"/>
+    <mergeCell ref="KX3:LF3"/>
+    <mergeCell ref="LJ4:LN4"/>
+    <mergeCell ref="LI3:LO3"/>
+    <mergeCell ref="LR3:LS3"/>
+    <mergeCell ref="LU4:LV4"/>
+    <mergeCell ref="LW4:LX4"/>
+    <mergeCell ref="LT3:MA3"/>
+    <mergeCell ref="MB3:MG3"/>
     <mergeCell ref="MH2:OL2"/>
     <mergeCell ref="OM3:ON3"/>
     <mergeCell ref="OO4:OS4"/>
@@ -81655,137 +81743,61 @@
     <mergeCell ref="MP6:MR6"/>
     <mergeCell ref="MO5:MR5"/>
     <mergeCell ref="MS5:MW5"/>
-    <mergeCell ref="MY3:MZ3"/>
-    <mergeCell ref="ND5:NF5"/>
-    <mergeCell ref="NC4:NF4"/>
-    <mergeCell ref="LB4:LF4"/>
-    <mergeCell ref="KX3:LF3"/>
-    <mergeCell ref="LJ4:LN4"/>
-    <mergeCell ref="LI3:LO3"/>
-    <mergeCell ref="LR3:LS3"/>
-    <mergeCell ref="LU4:LV4"/>
-    <mergeCell ref="LW4:LX4"/>
-    <mergeCell ref="LT3:MA3"/>
-    <mergeCell ref="MB3:MG3"/>
-    <mergeCell ref="KK6:KM6"/>
-    <mergeCell ref="KJ5:KM5"/>
-    <mergeCell ref="KN5:KR5"/>
-    <mergeCell ref="KJ4:KR4"/>
-    <mergeCell ref="KE3:KR3"/>
-    <mergeCell ref="KT3:KU3"/>
-    <mergeCell ref="KY5:LA5"/>
-    <mergeCell ref="KX4:LA4"/>
-    <mergeCell ref="MO4:MW4"/>
-    <mergeCell ref="MJ3:MW3"/>
-    <mergeCell ref="JH4:JL4"/>
-    <mergeCell ref="JG3:JM3"/>
-    <mergeCell ref="JP3:JQ3"/>
-    <mergeCell ref="JS4:JT4"/>
-    <mergeCell ref="JU4:JV4"/>
-    <mergeCell ref="JR3:JY3"/>
-    <mergeCell ref="JZ3:KB3"/>
-    <mergeCell ref="IA2:KB2"/>
-    <mergeCell ref="KC3:KD3"/>
-    <mergeCell ref="KC2:MG2"/>
-    <mergeCell ref="KE4:KI4"/>
-    <mergeCell ref="II6:IK6"/>
-    <mergeCell ref="IH5:IK5"/>
-    <mergeCell ref="IL5:IP5"/>
-    <mergeCell ref="IH4:IP4"/>
-    <mergeCell ref="IC3:IP3"/>
-    <mergeCell ref="IR3:IS3"/>
-    <mergeCell ref="IW5:IY5"/>
-    <mergeCell ref="IV4:IY4"/>
-    <mergeCell ref="IZ4:JD4"/>
-    <mergeCell ref="IV3:JD3"/>
-    <mergeCell ref="HD4:HE4"/>
-    <mergeCell ref="HA3:HH3"/>
-    <mergeCell ref="HN4:HP4"/>
-    <mergeCell ref="HQ4:HT4"/>
-    <mergeCell ref="HX4:HZ4"/>
-    <mergeCell ref="HI3:HZ3"/>
-    <mergeCell ref="FJ2:HZ2"/>
-    <mergeCell ref="IA3:IB3"/>
-    <mergeCell ref="IC4:IG4"/>
-    <mergeCell ref="GA3:GB3"/>
-    <mergeCell ref="GF5:GH5"/>
-    <mergeCell ref="GE4:GH4"/>
-    <mergeCell ref="GI4:GM4"/>
-    <mergeCell ref="GE3:GM3"/>
-    <mergeCell ref="GQ4:GU4"/>
-    <mergeCell ref="GP3:GV3"/>
-    <mergeCell ref="GY3:GZ3"/>
-    <mergeCell ref="HB4:HC4"/>
-    <mergeCell ref="FB4:FC4"/>
-    <mergeCell ref="EY3:FF3"/>
-    <mergeCell ref="FG3:FI3"/>
-    <mergeCell ref="FJ3:FK3"/>
-    <mergeCell ref="FL4:FP4"/>
-    <mergeCell ref="FR6:FT6"/>
-    <mergeCell ref="FQ5:FT5"/>
-    <mergeCell ref="FU5:FY5"/>
-    <mergeCell ref="FQ4:FY4"/>
-    <mergeCell ref="FL3:FY3"/>
-    <mergeCell ref="DY3:DZ3"/>
-    <mergeCell ref="ED5:EF5"/>
-    <mergeCell ref="EC4:EF4"/>
-    <mergeCell ref="EG4:EK4"/>
-    <mergeCell ref="EC3:EK3"/>
-    <mergeCell ref="EO4:ES4"/>
-    <mergeCell ref="EN3:ET3"/>
-    <mergeCell ref="EW3:EX3"/>
-    <mergeCell ref="EZ4:FA4"/>
-    <mergeCell ref="DB3:DG3"/>
-    <mergeCell ref="BC2:DG2"/>
-    <mergeCell ref="DH3:DI3"/>
-    <mergeCell ref="DJ4:DN4"/>
-    <mergeCell ref="DP6:DR6"/>
-    <mergeCell ref="DO5:DR5"/>
-    <mergeCell ref="DS5:DW5"/>
-    <mergeCell ref="DO4:DW4"/>
-    <mergeCell ref="DJ3:DW3"/>
-    <mergeCell ref="BY5:CA5"/>
-    <mergeCell ref="BX4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="BX3:CF3"/>
-    <mergeCell ref="CJ4:CN4"/>
-    <mergeCell ref="CI3:CO3"/>
-    <mergeCell ref="CR3:CS3"/>
-    <mergeCell ref="CU4:CV4"/>
-    <mergeCell ref="CW4:CX4"/>
-    <mergeCell ref="CT3:DA3"/>
-    <mergeCell ref="DH2:FI2"/>
-    <mergeCell ref="BN5:BR5"/>
-    <mergeCell ref="BJ4:BR4"/>
-    <mergeCell ref="BE3:BR3"/>
-    <mergeCell ref="BT3:BU3"/>
-    <mergeCell ref="Z4:AD4"/>
-    <mergeCell ref="V3:AD3"/>
-    <mergeCell ref="AH4:AL4"/>
-    <mergeCell ref="AG3:AM3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AR3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="C3:P3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="A2:BB2"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BE4:BI4"/>
-    <mergeCell ref="BK6:BM6"/>
-    <mergeCell ref="BJ5:BM5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="H4:P4"/>
+    <mergeCell ref="QL3:QR3"/>
+    <mergeCell ref="OM2:QR2"/>
+    <mergeCell ref="QS3:QT3"/>
+    <mergeCell ref="QU4:QY4"/>
+    <mergeCell ref="RA6:RC6"/>
+    <mergeCell ref="QZ5:RC5"/>
+    <mergeCell ref="RD5:RH5"/>
+    <mergeCell ref="QZ4:RH4"/>
+    <mergeCell ref="QU3:RH3"/>
+    <mergeCell ref="PI5:PK5"/>
+    <mergeCell ref="PH4:PK4"/>
+    <mergeCell ref="PL4:PP4"/>
+    <mergeCell ref="PH3:PP3"/>
+    <mergeCell ref="PT4:PX4"/>
+    <mergeCell ref="PS3:PY3"/>
+    <mergeCell ref="QB3:QC3"/>
+    <mergeCell ref="QE4:QF4"/>
+    <mergeCell ref="QG4:QH4"/>
+    <mergeCell ref="QD3:QK3"/>
+    <mergeCell ref="SM4:SN4"/>
+    <mergeCell ref="SJ3:SQ3"/>
+    <mergeCell ref="SR3:ST3"/>
+    <mergeCell ref="QS2:ST2"/>
+    <mergeCell ref="SU3:SV3"/>
+    <mergeCell ref="SW4:TA4"/>
+    <mergeCell ref="TC6:TE6"/>
+    <mergeCell ref="TB5:TE5"/>
+    <mergeCell ref="TF5:TJ5"/>
+    <mergeCell ref="TB4:TJ4"/>
+    <mergeCell ref="SW3:TJ3"/>
+    <mergeCell ref="RJ3:RK3"/>
+    <mergeCell ref="RO5:RQ5"/>
+    <mergeCell ref="RN4:RQ4"/>
+    <mergeCell ref="RR4:RV4"/>
+    <mergeCell ref="RN3:RV3"/>
+    <mergeCell ref="RZ4:SD4"/>
+    <mergeCell ref="RY3:SE3"/>
+    <mergeCell ref="SH3:SI3"/>
+    <mergeCell ref="SK4:SL4"/>
+    <mergeCell ref="UO4:UP4"/>
+    <mergeCell ref="UL3:US3"/>
+    <mergeCell ref="UT3:UV3"/>
+    <mergeCell ref="SU2:UV2"/>
+    <mergeCell ref="TL3:TM3"/>
+    <mergeCell ref="TQ5:TS5"/>
+    <mergeCell ref="TP4:TS4"/>
+    <mergeCell ref="TT4:TX4"/>
+    <mergeCell ref="TP3:TX3"/>
+    <mergeCell ref="UB4:UF4"/>
+    <mergeCell ref="UA3:UG3"/>
+    <mergeCell ref="UJ3:UK3"/>
+    <mergeCell ref="UM4:UN4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U9:U1000001 UM9:UM1000001 UG9:UG1000001 TY9:TZ1000001 TO9:TO1000001 SK9:SK1000001 SE9:SE1000001 RW9:RX1000001 RM9:RM1000001 QE9:QE1000001 PY9:PY1000001 PQ9:PR1000001 PG9:PG1000001 NZ9:NZ1000001 NT9:NT1000001 NL9:NM1000001 NB9:NB1000001 LU9:LU1000001 LO9:LO1000001 LG9:LH1000001 KW9:KW1000001 JS9:JS1000001 JM9:JM1000001 JE9:JF1000001 IU9:IU1000001 HB9:HB1000001 GV9:GV1000001 GN9:GO1000001 GD9:GD1000001 EZ9:EZ1000001 ET9:ET1000001 EL9:EM1000001 EB9:EB1000001 CU9:CU1000001 CO9:CO1000001 CG9:CH1000001 BW9:BW1000001 AS9:AS1000001 AM9:AM1000001 AE9:AF1000001" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="UM9:UM1000001 UG9:UG1000001 TY9:TZ1000001 TO9:TO1000001 SK9:SK1000001 SE9:SE1000001 RW9:RX1000001 RM9:RM1000001 QE9:QE1000001 PY9:PY1000001 PQ9:PR1000001 PG9:PG1000001 NZ9:NZ1000001 NT9:NT1000001 NL9:NM1000001 NB9:NB1000001 LU9:LU1000001 LO9:LO1000001 LG9:LH1000001 KW9:KW1000001 JS9:JS1000001 JM9:JM1000001 JE9:JF1000001 IU9:IU1000001 HB9:HB1000001 GV9:GV1000001 GN9:GO1000001 GD9:GD1000001 CU9:CU1000001 CO9:CO1000001 CG9:CH1000001 BW9:BW1000001 EL9:EM1000001 AE14:AF1000001 ET9:ET1000001 AM14:AM1000001 EZ9:EZ1000001 AS14:AS1000001 EB9:EB1000001 U14:U1000001" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
@@ -81852,24 +81864,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="57">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
-          <x14:formula1>
-            <xm:f>Codelijsten!$BE$4:$BE$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>Q9:Q1000001</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000005000000}">
-          <x14:formula1>
-            <xm:f>Codelijsten!$BG$4:$BG$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>AO9:AO1000001</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000007000000}">
-          <x14:formula1>
-            <xm:f>Codelijsten!$BI$4:$BI$60</xm:f>
-          </x14:formula1>
-          <xm:sqref>AX9:AX1000001</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000008000000}">
           <x14:formula1>
             <xm:f>Codelijsten!$BK$4:$BK$6</xm:f>
@@ -82194,6 +82188,24 @@
           </x14:formula1>
           <xm:sqref>UV9:UV1000001</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+          <x14:formula1>
+            <xm:f>Codelijsten!$BE$4:$BE$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q14:Q1000001 DX9:DX13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000005000000}">
+          <x14:formula1>
+            <xm:f>Codelijsten!$BG$4:$BG$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>AO14:AO1000001 EV9:EV13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000007000000}">
+          <x14:formula1>
+            <xm:f>Codelijsten!$BI$4:$BI$60</xm:f>
+          </x14:formula1>
+          <xm:sqref>AX14:AX1000001 FE9:FE13</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -82204,8 +82216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CZ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CS1" workbookViewId="0">
-      <selection activeCell="CU16" sqref="CU16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -83623,22 +83635,22 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>5003</v>
+      </c>
+      <c r="C9" t="s">
         <v>5004</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>5005</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5006</v>
       </c>
       <c r="F9" t="s">
         <v>3763</v>
       </c>
       <c r="G9" t="s">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="H9" t="s">
-        <v>5007</v>
+        <v>5006</v>
       </c>
       <c r="AI9" t="s">
         <v>2168</v>
@@ -83650,28 +83662,28 @@
         <v>293</v>
       </c>
       <c r="AX9" t="s">
+        <v>5007</v>
+      </c>
+      <c r="AY9" t="s">
         <v>5008</v>
       </c>
-      <c r="AY9" t="s">
+      <c r="CK9" t="s">
+        <v>5007</v>
+      </c>
+      <c r="CS9" t="s">
         <v>5009</v>
-      </c>
-      <c r="CK9" t="s">
-        <v>5008</v>
-      </c>
-      <c r="CS9" t="s">
-        <v>5010</v>
       </c>
       <c r="CU9">
         <v>2017</v>
       </c>
       <c r="CW9" t="s">
-        <v>5016</v>
+        <v>5015</v>
       </c>
       <c r="CY9" t="s">
         <v>151</v>
       </c>
       <c r="CZ9" t="s">
-        <v>5013</v>
+        <v>5012</v>
       </c>
     </row>
     <row r="10" spans="1:104" x14ac:dyDescent="0.3">
@@ -83682,65 +83694,65 @@
         <v>293</v>
       </c>
       <c r="AX10" t="s">
+        <v>5007</v>
+      </c>
+      <c r="AY10" t="s">
         <v>5008</v>
       </c>
-      <c r="AY10" t="s">
-        <v>5009</v>
-      </c>
       <c r="CS10" t="s">
-        <v>5011</v>
+        <v>5010</v>
       </c>
       <c r="CU10">
         <v>2017</v>
       </c>
       <c r="CW10" t="s">
-        <v>5016</v>
+        <v>5015</v>
       </c>
       <c r="CY10" t="s">
         <v>151</v>
       </c>
       <c r="CZ10" t="s">
-        <v>5013</v>
+        <v>5012</v>
       </c>
     </row>
     <row r="11" spans="1:104" x14ac:dyDescent="0.3">
       <c r="CS11" t="s">
-        <v>5012</v>
+        <v>5011</v>
       </c>
       <c r="CU11">
         <v>2017</v>
       </c>
       <c r="CW11" t="s">
-        <v>5016</v>
+        <v>5015</v>
       </c>
       <c r="CY11" t="s">
         <v>151</v>
       </c>
       <c r="CZ11" t="s">
-        <v>5013</v>
+        <v>5012</v>
       </c>
     </row>
     <row r="12" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>5013</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5016</v>
+      </c>
+      <c r="C12" t="s">
         <v>5014</v>
       </c>
-      <c r="B12" t="s">
-        <v>5017</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>5015</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5016</v>
       </c>
       <c r="F12" t="s">
         <v>3763</v>
       </c>
       <c r="G12" t="s">
-        <v>5019</v>
+        <v>5018</v>
       </c>
       <c r="H12" t="s">
-        <v>5018</v>
+        <v>5017</v>
       </c>
       <c r="L12" t="s">
         <v>3766</v>
@@ -83761,7 +83773,7 @@
         <v>2293</v>
       </c>
       <c r="AJ12" t="s">
-        <v>5021</v>
+        <v>5020</v>
       </c>
       <c r="AK12" t="s">
         <v>4962</v>
@@ -83776,28 +83788,28 @@
         <v>1089</v>
       </c>
       <c r="AX12" t="s">
-        <v>5023</v>
+        <v>5022</v>
       </c>
       <c r="AY12" t="s">
         <v>1089</v>
       </c>
       <c r="CK12" t="s">
+        <v>5022</v>
+      </c>
+      <c r="CS12" t="s">
         <v>5023</v>
-      </c>
-      <c r="CS12" t="s">
-        <v>5024</v>
       </c>
       <c r="CU12">
         <v>2017</v>
       </c>
       <c r="CW12" t="s">
-        <v>5016</v>
+        <v>5015</v>
       </c>
       <c r="CY12" t="s">
         <v>151</v>
       </c>
       <c r="CZ12" t="s">
-        <v>5013</v>
+        <v>5012</v>
       </c>
     </row>
     <row r="13" spans="1:104" x14ac:dyDescent="0.3">
@@ -83805,7 +83817,7 @@
         <v>3767</v>
       </c>
       <c r="N13" t="s">
-        <v>5020</v>
+        <v>5019</v>
       </c>
       <c r="O13" t="s">
         <v>4691</v>
@@ -83817,7 +83829,7 @@
         <v>4892</v>
       </c>
       <c r="AJ13" t="s">
-        <v>5022</v>
+        <v>5021</v>
       </c>
       <c r="AK13" t="s">
         <v>4962</v>
@@ -83828,18 +83840,18 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="BZ5:CD5"/>
-    <mergeCell ref="BV4:CD4"/>
-    <mergeCell ref="CV3:CW3"/>
-    <mergeCell ref="CS2:CZ2"/>
-    <mergeCell ref="AM2:CH2"/>
-    <mergeCell ref="CI2:CJ2"/>
-    <mergeCell ref="CM3:CQ3"/>
-    <mergeCell ref="CL2:CR2"/>
-    <mergeCell ref="CT3:CU3"/>
-    <mergeCell ref="BC5:BG5"/>
-    <mergeCell ref="AY4:BG4"/>
-    <mergeCell ref="AM3:BI3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="L3:AF3"/>
+    <mergeCell ref="L2:AF2"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="AG3:AL3"/>
+    <mergeCell ref="AG2:AL2"/>
     <mergeCell ref="BM6:BO6"/>
     <mergeCell ref="BL5:BO5"/>
     <mergeCell ref="BJ3:CH3"/>
@@ -83853,18 +83865,18 @@
     <mergeCell ref="BL4:BT4"/>
     <mergeCell ref="BW6:BY6"/>
     <mergeCell ref="BV5:BY5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="L3:AF3"/>
-    <mergeCell ref="L2:AF2"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="AG3:AL3"/>
-    <mergeCell ref="AG2:AL2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="BZ5:CD5"/>
+    <mergeCell ref="BV4:CD4"/>
+    <mergeCell ref="CV3:CW3"/>
+    <mergeCell ref="CS2:CZ2"/>
+    <mergeCell ref="AM2:CH2"/>
+    <mergeCell ref="CI2:CJ2"/>
+    <mergeCell ref="CM3:CQ3"/>
+    <mergeCell ref="CL2:CR2"/>
+    <mergeCell ref="CT3:CU3"/>
+    <mergeCell ref="BC5:BG5"/>
+    <mergeCell ref="AY4:BG4"/>
+    <mergeCell ref="AM3:BI3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E1000001 CT9:CT1000001 CR9:CR1000001 BK9:BK1000001 AN9:AN1000001 P9:P1000001 J9:K1000001" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -84710,6 +84722,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="W3:Z3"/>
     <mergeCell ref="AW3:AX3"/>
     <mergeCell ref="AY3:AZ3"/>
     <mergeCell ref="AV2:BC2"/>
@@ -84719,17 +84742,6 @@
     <mergeCell ref="AK2:AM2"/>
     <mergeCell ref="AP3:AT3"/>
     <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="K3:N3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW7:AW1000001 AU7:AU1000001 AF7:AG1000001" xr:uid="{00000000-0002-0000-0400-000000000000}">

--- a/tests/data/filled_templates/geologie_template_full.xlsx
+++ b/tests/data/filled_templates/geologie_template_full.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RubenVijverman\PycharmProjects\xls2xml\tests\data\filled_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C930F0-9BED-419E-BF3F-A8FACC7A8464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7A6E69-DB55-4B2E-B8AC-F9C85C6F79CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codelijsten" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20525" uniqueCount="5026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20527" uniqueCount="5030">
   <si>
     <t>identificatie</t>
   </si>
@@ -15059,9 +15059,6 @@
     <t>Onderkenningsproeven</t>
   </si>
   <si>
-    <t>Volumemassa &amp;amp; watergehalte</t>
-  </si>
-  <si>
     <t xml:space="preserve">Id: GEO-69/641 Beschikbaar bij: MVG - Afdeling Geotechniek </t>
   </si>
   <si>
@@ -15102,6 +15099,21 @@
   </si>
   <si>
     <t>GEO-79/352</t>
+  </si>
+  <si>
+    <t>Volumemassa en watergehalte</t>
+  </si>
+  <si>
+    <t>Id: GEO-09/044 Beschikbaar bij: VO - Afdeling Geotechniek</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>2016-254494</t>
+  </si>
+  <si>
+    <t>https://www.dov.vlaanderen.be/data/interpretatie/2016-254494</t>
   </si>
 </sst>
 </file>
@@ -70913,8 +70925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:GC11"/>
   <sheetViews>
-    <sheetView topLeftCell="FR1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -73386,7 +73398,7 @@
         <v>664</v>
       </c>
       <c r="DA9" t="s">
-        <v>5024</v>
+        <v>5023</v>
       </c>
       <c r="DC9" t="s">
         <v>732</v>
@@ -73531,7 +73543,7 @@
         <v>4983</v>
       </c>
       <c r="FS11" t="s">
-        <v>5025</v>
+        <v>5024</v>
       </c>
     </row>
   </sheetData>
@@ -73819,8 +73831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:UV13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="DY1" workbookViewId="0">
+      <selection activeCell="DZ9" sqref="DZ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -81493,6 +81505,12 @@
       <c r="DX9" t="s">
         <v>292</v>
       </c>
+      <c r="DY9" t="s">
+        <v>5028</v>
+      </c>
+      <c r="DZ9" t="s">
+        <v>5029</v>
+      </c>
       <c r="EC9" t="s">
         <v>293</v>
       </c>
@@ -81861,6 +81879,7 @@
     <hyperlink ref="UV8" location="'Codelijsten'!$FM$2" display="hydrogeologischeinterpretatiev2-laag-aquifer" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="57">
@@ -82216,8 +82235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CZ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -83677,13 +83696,13 @@
         <v>2017</v>
       </c>
       <c r="CW9" t="s">
-        <v>5015</v>
+        <v>5014</v>
       </c>
       <c r="CY9" t="s">
         <v>151</v>
       </c>
       <c r="CZ9" t="s">
-        <v>5012</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="10" spans="1:104" x14ac:dyDescent="0.3">
@@ -83706,59 +83725,59 @@
         <v>2017</v>
       </c>
       <c r="CW10" t="s">
-        <v>5015</v>
+        <v>5014</v>
       </c>
       <c r="CY10" t="s">
         <v>151</v>
       </c>
       <c r="CZ10" t="s">
-        <v>5012</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="11" spans="1:104" x14ac:dyDescent="0.3">
       <c r="CS11" t="s">
-        <v>5011</v>
+        <v>5025</v>
       </c>
       <c r="CU11">
         <v>2017</v>
       </c>
       <c r="CW11" t="s">
-        <v>5015</v>
+        <v>5014</v>
       </c>
       <c r="CY11" t="s">
         <v>151</v>
       </c>
       <c r="CZ11" t="s">
-        <v>5012</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="12" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>5012</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5015</v>
+      </c>
+      <c r="C12" t="s">
         <v>5013</v>
       </c>
-      <c r="B12" t="s">
-        <v>5016</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>5014</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5015</v>
       </c>
       <c r="F12" t="s">
         <v>3763</v>
       </c>
       <c r="G12" t="s">
-        <v>5018</v>
+        <v>5017</v>
       </c>
       <c r="H12" t="s">
-        <v>5017</v>
+        <v>5016</v>
       </c>
       <c r="L12" t="s">
         <v>3766</v>
       </c>
       <c r="N12" t="s">
-        <v>3966</v>
+        <v>5027</v>
       </c>
       <c r="O12" t="s">
         <v>4691</v>
@@ -83773,7 +83792,7 @@
         <v>2293</v>
       </c>
       <c r="AJ12" t="s">
-        <v>5020</v>
+        <v>5019</v>
       </c>
       <c r="AK12" t="s">
         <v>4962</v>
@@ -83788,28 +83807,28 @@
         <v>1089</v>
       </c>
       <c r="AX12" t="s">
-        <v>5022</v>
+        <v>5021</v>
       </c>
       <c r="AY12" t="s">
         <v>1089</v>
       </c>
       <c r="CK12" t="s">
+        <v>5021</v>
+      </c>
+      <c r="CS12" t="s">
         <v>5022</v>
-      </c>
-      <c r="CS12" t="s">
-        <v>5023</v>
       </c>
       <c r="CU12">
         <v>2017</v>
       </c>
       <c r="CW12" t="s">
-        <v>5015</v>
+        <v>5014</v>
       </c>
       <c r="CY12" t="s">
         <v>151</v>
       </c>
       <c r="CZ12" t="s">
-        <v>5012</v>
+        <v>5026</v>
       </c>
     </row>
     <row r="13" spans="1:104" x14ac:dyDescent="0.3">
@@ -83817,7 +83836,7 @@
         <v>3767</v>
       </c>
       <c r="N13" t="s">
-        <v>5019</v>
+        <v>5018</v>
       </c>
       <c r="O13" t="s">
         <v>4691</v>
@@ -83829,7 +83848,7 @@
         <v>4892</v>
       </c>
       <c r="AJ13" t="s">
-        <v>5021</v>
+        <v>5020</v>
       </c>
       <c r="AK13" t="s">
         <v>4962</v>
@@ -83867,6 +83886,9 @@
     <mergeCell ref="BV5:BY5"/>
     <mergeCell ref="BZ5:CD5"/>
     <mergeCell ref="BV4:CD4"/>
+    <mergeCell ref="BC5:BG5"/>
+    <mergeCell ref="AY4:BG4"/>
+    <mergeCell ref="AM3:BI3"/>
     <mergeCell ref="CV3:CW3"/>
     <mergeCell ref="CS2:CZ2"/>
     <mergeCell ref="AM2:CH2"/>
@@ -83874,9 +83896,6 @@
     <mergeCell ref="CM3:CQ3"/>
     <mergeCell ref="CL2:CR2"/>
     <mergeCell ref="CT3:CU3"/>
-    <mergeCell ref="BC5:BG5"/>
-    <mergeCell ref="AY4:BG4"/>
-    <mergeCell ref="AM3:BI3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E1000001 CT9:CT1000001 CR9:CR1000001 BK9:BK1000001 AN9:AN1000001 P9:P1000001 J9:K1000001" xr:uid="{00000000-0002-0000-0300-000000000000}">
